--- a/QA_Legend_Billing/src/main/resources/login.xlsx
+++ b/QA_Legend_Billing/src/main/resources/login.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>UserName</t>
   </si>
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -397,14 +397,6 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>123</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/QA_Legend_Billing/src/main/resources/login.xlsx
+++ b/QA_Legend_Billing/src/main/resources/login.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="36" windowWidth="16260" windowHeight="5856"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="17016" windowHeight="8124" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="userDetails" sheetId="5" r:id="rId4"/>
+    <sheet name="InvalidLoginDetails" sheetId="6" r:id="rId5"/>
+    <sheet name="updateDetails" sheetId="7" r:id="rId6"/>
+    <sheet name="changePassword" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>UserName</t>
   </si>
@@ -25,13 +29,91 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>E-Mail Address</t>
+  </si>
+  <si>
+    <t>abcdmnb@gmail.com</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Abcd</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>SalesCommission Percentage</t>
+  </si>
+  <si>
+    <t>LMN</t>
+  </si>
+  <si>
+    <t>abcdlmn</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>KL</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>anumolkl12@gmail.com</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>confirm</t>
+  </si>
+  <si>
+    <t>AbcdLmn01234567</t>
+  </si>
+  <si>
+    <t>abcdlmnqas01234567@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,6 +126,14 @@
       <color rgb="FF212529"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,14 +153,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -372,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -405,24 +499,307 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="29.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="26.88671875" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2">
+        <v>123456</v>
+      </c>
+      <c r="D2">
+        <v>123456</v>
+      </c>
+      <c r="E2">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/QA_Legend_Billing/src/main/resources/login.xlsx
+++ b/QA_Legend_Billing/src/main/resources/login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="17016" windowHeight="8124" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="17016" windowHeight="8124" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="InvalidLoginDetails" sheetId="6" r:id="rId5"/>
     <sheet name="updateDetails" sheetId="7" r:id="rId6"/>
     <sheet name="changePassword" sheetId="8" r:id="rId7"/>
+    <sheet name="correctDetails" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
   <si>
     <t>UserName</t>
   </si>
@@ -107,6 +108,12 @@
   </si>
   <si>
     <t>abcdlmnqas01234567@gmail.com</t>
+  </si>
+  <si>
+    <t>abcdlmnqas0123lmn@gmail.com</t>
+  </si>
+  <si>
+    <t>Abc4567lmn</t>
   </si>
 </sst>
 </file>
@@ -572,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,19 +702,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="6" max="6" width="27.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="10" max="10" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -727,7 +737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -746,6 +756,7 @@
       <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="J2" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -802,4 +813,98 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="24.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>